--- a/features_category_c.xlsx
+++ b/features_category_c.xlsx
@@ -467,19 +467,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1.62233521090399</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2.522301455612483</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.40131844</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.009669999999999956</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -487,10 +487,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1415114623675972</v>
+        <v>-0.1439873785766933</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.471030435140487</v>
+        <v>-1.471887876755644</v>
       </c>
       <c r="C3" t="n">
         <v>0.05802200000000002</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.1916356335665326</v>
+        <v>-0.1944567417772962</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.450444090144308</v>
+        <v>-1.451368869383521</v>
       </c>
       <c r="C4" t="n">
         <v>0.062857</v>
@@ -527,10 +527,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.1851636224252473</v>
+        <v>-0.1878290432683844</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.454573674013649</v>
+        <v>-1.455779041389828</v>
       </c>
       <c r="C5" t="n">
         <v>0.05802200000000002</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0296239564403249</v>
+        <v>0.03162457190715398</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.448719356132848</v>
+        <v>-1.450085130149375</v>
       </c>
       <c r="C6" t="n">
         <v>0.05318699999999998</v>
@@ -567,16 +567,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.002887614401838387</v>
+        <v>-0.00173206329599508</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.456604200723937</v>
+        <v>-1.458793951136022</v>
       </c>
       <c r="C7" t="n">
         <v>0.05318699999999998</v>
       </c>
       <c r="D7" t="n">
-        <v>0.043516</v>
+        <v>0.03868100000000002</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -587,10 +587,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.03398646528777351</v>
+        <v>0.03567702657627076</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.460440074119061</v>
+        <v>-1.462300797227134</v>
       </c>
       <c r="C8" t="n">
         <v>0.05318699999999998</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.021887605932885</v>
+        <v>1.029235511835111</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4100309554672812</v>
+        <v>-0.3981036020233515</v>
       </c>
       <c r="C9" t="n">
         <v>0.05318699999999998</v>
@@ -619,7 +619,7 @@
         <v>0.778461</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
         <v>7</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.003974863576242</v>
+        <v>1.011012561768807</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.3856477298501861</v>
+        <v>-0.373192743430923</v>
       </c>
       <c r="C10" t="n">
         <v>0.05318699999999998</v>
@@ -647,10 +647,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9840739710117677</v>
+        <v>1.012426788620537</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.5005770489113761</v>
+        <v>-0.4290224664953883</v>
       </c>
       <c r="C11" t="n">
         <v>0.05318699999999998</v>
@@ -667,10 +667,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6837184642179168</v>
+        <v>0.6925130488285822</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.5349476684313035</v>
+        <v>-0.5266977223525431</v>
       </c>
       <c r="C12" t="n">
         <v>0.04835200000000001</v>
@@ -687,16 +687,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.7708952412188728</v>
+        <v>0.7774594708806193</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.415840659236637</v>
+        <v>-0.4060413732233763</v>
       </c>
       <c r="C13" t="n">
         <v>0.04835200000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8703289999999999</v>
+        <v>0.04351699999999997</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -707,19 +707,19 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.7110789339438989</v>
+        <v>0.7211200139768806</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.4568808211601292</v>
+        <v>-0.4353120919130355</v>
       </c>
       <c r="C14" t="n">
         <v>0.04351700000000003</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8703289999999999</v>
+        <v>0.04351699999999997</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>12</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.216820299896981</v>
+        <v>0.2208470512434584</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.216765114831201</v>
+        <v>-1.21268651768271</v>
       </c>
       <c r="C15" t="n">
         <v>0.04351700000000003</v>
@@ -739,7 +739,7 @@
         <v>0.75912</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
         <v>13</v>
@@ -747,16 +747,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1891862234083851</v>
+        <v>0.1942641042617906</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.342781849422621</v>
+        <v>-1.333907577353858</v>
       </c>
       <c r="C16" t="n">
         <v>0.04835200000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.744615</v>
+        <v>0.08219700000000002</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -767,10 +767,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2645484887332479</v>
+        <v>0.2666114568683438</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.202300610995463</v>
+        <v>-1.192584240931173</v>
       </c>
       <c r="C17" t="n">
         <v>0.04351700000000003</v>
@@ -787,19 +787,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.05083039771109056</v>
+        <v>0.05044819977532972</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.408264431777157</v>
+        <v>-1.388127460627619</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7639549999999999</v>
+        <v>0.773625</v>
       </c>
       <c r="D18" t="n">
         <v>0.03384599999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
         <v>16</v>
@@ -807,10 +807,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1045907182926333</v>
+        <v>0.1055700686335244</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.393968343837551</v>
+        <v>-1.390640771950284</v>
       </c>
       <c r="C19" t="n">
         <v>0.06769199999999997</v>
@@ -827,10 +827,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.2000466496384875</v>
+        <v>0.1991841031719053</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.186865326781355</v>
+        <v>-1.160178407400638</v>
       </c>
       <c r="C20" t="n">
         <v>0.06769199999999997</v>
@@ -847,10 +847,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.543100257001726</v>
+        <v>0.5455128807247918</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.728831578153728</v>
+        <v>-0.6817981402625692</v>
       </c>
       <c r="C21" t="n">
         <v>0.78813</v>
@@ -867,16 +867,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6810873577415145</v>
+        <v>0.6794565355798995</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.7088543072238092</v>
+        <v>-0.7003349853864269</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8751639999999999</v>
+        <v>0.06769200000000003</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03868100000000002</v>
+        <v>0.043516</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.5187855301447168</v>
+        <v>0.5281096416115046</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.8517207906539621</v>
+        <v>-0.8283812768528249</v>
       </c>
       <c r="C23" t="n">
         <v>0.06769199999999997</v>
@@ -899,7 +899,7 @@
         <v>0.03384599999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
         <v>21</v>
@@ -907,19 +907,19 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.7560424645794371</v>
+        <v>0.7513295979020571</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.9078742357893956</v>
+        <v>-0.8958518757386327</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8606579999999999</v>
+        <v>0.865493</v>
       </c>
       <c r="D24" t="n">
         <v>0.043516</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
         <v>22</v>
@@ -927,10 +927,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.6843815172143068</v>
+        <v>0.7063829281580859</v>
       </c>
       <c r="B25" t="n">
-        <v>-1.054192193046865</v>
+        <v>-1.00022629969505</v>
       </c>
       <c r="C25" t="n">
         <v>0.06769199999999997</v>
@@ -939,7 +939,7 @@
         <v>0.03868100000000002</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
         <v>23</v>
@@ -947,13 +947,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.1390039662529592</v>
+        <v>0.1363098416758242</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.320333452977761</v>
+        <v>-1.28884224166924</v>
       </c>
       <c r="C26" t="n">
-        <v>0.06769200000000003</v>
+        <v>0.07252700000000001</v>
       </c>
       <c r="D26" t="n">
         <v>0.043516</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.003061731165986828</v>
+        <v>-0.0008673217820262162</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.35189723123037</v>
+        <v>-1.312388979180539</v>
       </c>
       <c r="C27" t="n">
-        <v>0.06769199999999997</v>
+        <v>0.062857</v>
       </c>
       <c r="D27" t="n">
-        <v>0.03384600000000004</v>
+        <v>0.03868100000000002</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
         <v>25</v>
@@ -987,13 +987,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.05578818857226465</v>
+        <v>0.05228232546424906</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.411388379368771</v>
+        <v>-1.39812640837186</v>
       </c>
       <c r="C28" t="n">
-        <v>0.062857</v>
+        <v>0.06769199999999997</v>
       </c>
       <c r="D28" t="n">
         <v>0.03868100000000002</v>
@@ -1007,19 +1007,19 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.003561829332403687</v>
+        <v>0.02658874061189204</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.38620986464281</v>
+        <v>-1.370304732648153</v>
       </c>
       <c r="C29" t="n">
-        <v>0.062857</v>
+        <v>0.06769199999999997</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03868100000000002</v>
+        <v>0.043516</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
         <v>27</v>
@@ -1027,19 +1027,19 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.0004161617380760914</v>
+        <v>-0.0009109289802389225</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.355547746967229</v>
+        <v>-1.3161154272228</v>
       </c>
       <c r="C30" t="n">
         <v>0.062857</v>
       </c>
       <c r="D30" t="n">
-        <v>0.03384600000000004</v>
+        <v>0.03868100000000002</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
         <v>28</v>
@@ -1047,10 +1047,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.03751851960052035</v>
+        <v>-0.04036099824645148</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.326073142942335</v>
+        <v>-1.281405104458613</v>
       </c>
       <c r="C31" t="n">
         <v>0.062857</v>
@@ -1067,19 +1067,19 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9035474287431016</v>
+        <v>1.025137790954911</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.8021131950909361</v>
+        <v>-0.5870453731317928</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4109885919999999</v>
+        <v>0.391647936</v>
       </c>
       <c r="D32" t="n">
-        <v>0.024175</v>
+        <v>0.01933999999999997</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
         <v>30</v>
@@ -1087,13 +1087,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.2817702043072535</v>
+        <v>-0.2412115450904691</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.303020336289259</v>
+        <v>-1.341483288709219</v>
       </c>
       <c r="C33" t="n">
-        <v>0.831647</v>
+        <v>0.04835099999999998</v>
       </c>
       <c r="D33" t="n">
         <v>0.01450499999999999</v>
@@ -1107,13 +1107,13 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.282306919583425</v>
+        <v>-0.2115760351813951</v>
       </c>
       <c r="B34" t="n">
-        <v>-1.263767672067706</v>
+        <v>-1.315507902970704</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8268119999999999</v>
+        <v>0.831647</v>
       </c>
       <c r="D34" t="n">
         <v>0.01450499999999999</v>
@@ -1127,10 +1127,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.3113667336791369</v>
+        <v>-0.2327186457733519</v>
       </c>
       <c r="B35" t="n">
-        <v>-1.251291480034407</v>
+        <v>-1.313434601935141</v>
       </c>
       <c r="C35" t="n">
         <v>0.04835099999999998</v>
@@ -1147,19 +1147,19 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.2503592825879994</v>
+        <v>-0.1908920539494794</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.292277906748189</v>
+        <v>-1.34118999317548</v>
       </c>
       <c r="C36" t="n">
-        <v>0.04835099999999998</v>
+        <v>0.043516</v>
       </c>
       <c r="D36" t="n">
         <v>0.01450499999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
         <v>34</v>
@@ -1167,19 +1167,19 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.4496217028615835</v>
+        <v>-0.3705283647899347</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.144167203750991</v>
+        <v>-1.278218847787483</v>
       </c>
       <c r="C37" t="n">
         <v>0.043516</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01450499999999999</v>
+        <v>0.009669999999999956</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
         <v>35</v>
@@ -1187,10 +1187,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.3423303395176066</v>
+        <v>-0.2693381946138951</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.221677350466155</v>
+        <v>-1.29476132194428</v>
       </c>
       <c r="C38" t="n">
         <v>0.043516</v>
@@ -1207,10 +1207,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.361611761357365</v>
+        <v>-0.3094347515376059</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.229100510572729</v>
+        <v>-1.302681212480544</v>
       </c>
       <c r="C39" t="n">
         <v>0.04835099999999998</v>
@@ -1219,7 +1219,7 @@
         <v>0.01450499999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
         <v>37</v>
@@ -1227,19 +1227,19 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.4426688214744381</v>
+        <v>0.7767575072402623</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.168150033505976</v>
+        <v>-1.101742949659991</v>
       </c>
       <c r="C40" t="n">
-        <v>0.560878</v>
+        <v>0.6092299999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.024175</v>
+        <v>0.01933999999999997</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
         <v>38</v>
@@ -1247,16 +1247,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.1884707998688011</v>
+        <v>-0.1307490918608382</v>
       </c>
       <c r="B41" t="n">
-        <v>-1.339883846020445</v>
+        <v>-1.349952946420109</v>
       </c>
       <c r="C41" t="n">
-        <v>0.04835099999999998</v>
+        <v>0.05318599999999996</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01933999999999997</v>
+        <v>0.01450499999999999</v>
       </c>
       <c r="E41" t="n">
         <v>2</v>
@@ -1267,10 +1267,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.3209412179852594</v>
+        <v>-0.2544077109809889</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.248372303743903</v>
+        <v>-1.310803800304371</v>
       </c>
       <c r="C42" t="n">
         <v>0.04835099999999998</v>
